--- a/计算机应用基础/第4章excel/课堂文件-公式和函数.xlsx
+++ b/计算机应用基础/第4章excel/课堂文件-公式和函数.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="基本操作案例" sheetId="1" r:id="rId1"/>
     <sheet name="打印" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="countif" sheetId="3" r:id="rId4"/>
     <sheet name="sumif" sheetId="5" r:id="rId5"/>
     <sheet name="vlookup" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -23,12 +28,12 @@
     <definedName name="总分">基本操作案例!$J$2:$J$21</definedName>
     <definedName name="总评">基本操作案例!$L$2:$L$21</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
   <si>
     <t>编号</t>
   </si>
@@ -496,13 +501,57 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
@@ -666,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +807,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -827,6 +882,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -874,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,7 +967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,10 +1179,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1879,7 +1937,63 @@
         <v>42917</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:I21">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
@@ -3923,495 +4037,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" errors="blank" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" errors="blank" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="17">
-        <v>43622</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="18">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="17">
-        <v>43623</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="18">
-        <v>15.4</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="17">
-        <v>43624</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18">
-        <v>23.5</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="17">
-        <v>43625</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="17">
-        <v>43626</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="17">
-        <v>43627</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="18">
-        <v>27.299999999999997</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="17">
-        <v>43628</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8" s="18">
-        <v>18.8</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="17">
-        <v>43629</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9" s="18">
-        <v>32.4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="17">
-        <v>43630</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10" s="18">
-        <v>15.4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="17">
-        <v>43631</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18">
-        <v>21.9</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="17">
-        <v>43632</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" s="18">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="17">
-        <v>43633</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="18">
-        <v>13.4</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="17">
-        <v>43634</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="18">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="17">
-        <v>43635</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="17">
-        <v>43636</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16" s="18">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="17">
-        <v>43637</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17" s="18">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="17">
-        <v>43638</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18" s="18">
-        <v>18.8</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="17">
-        <v>43639</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19" s="18">
-        <v>15.1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="17">
-        <v>43640</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
-      <formula1>"文件,数码产品,日用品,服饰,食品,其他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4535,6 +4165,514 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43622</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="18">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43623</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43624</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18">
+        <v>23.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43625</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43626</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43627</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18">
+        <v>27.299999999999997</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43628</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18">
+        <v>18.8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43629</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="18">
+        <v>32.4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43630</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43631</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18">
+        <v>21.9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43632</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="18">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="17">
+        <v>43633</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43634</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" s="18">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="17">
+        <v>43635</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43636</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43637</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" s="18">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="17">
+        <v>43638</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18">
+        <v>18.8</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="17">
+        <v>43639</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18">
+        <v>15.1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43640</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
+      <formula1>"文件,数码产品,日用品,服饰,食品,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4701,7 +4839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -5009,7 +5147,7 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H3:H11" si="1">IFERROR(IF(VLOOKUP(E10,$A$2:$B$20,2,0)&lt;&gt;F10,"金额有误",""),"订单有误")</f>
+        <f t="shared" ref="H10:H11" si="1">IFERROR(IF(VLOOKUP(E10,$A$2:$B$20,2,0)&lt;&gt;F10,"金额有误",""),"订单有误")</f>
         <v/>
       </c>
       <c r="K10" s="28">
